--- a/paper/conv_blocks.xlsx
+++ b/paper/conv_blocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\00_phd\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99D15B4-BB70-45DD-AF3B-2308AB0FD985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0388A94-E465-40D0-9E2E-9843BC1E4C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7379EF80-B9BA-4F49-A555-A00FCEE002E0}"/>
+    <workbookView xWindow="45972" yWindow="3840" windowWidth="30936" windowHeight="16896" xr2:uid="{7379EF80-B9BA-4F49-A555-A00FCEE002E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>pad</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>intermed</t>
+  </si>
+  <si>
+    <t>stride</t>
   </si>
 </sst>
 </file>
@@ -407,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F5F1112-8B10-46E7-A1C2-A7AA9C556013}">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -429,16 +432,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1">
         <v>352</v>
       </c>
@@ -452,48 +458,54 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
-        <f>((D2-E2+1)/2)</f>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <f>((D2-E2+1)/F2)</f>
         <v>176</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <f>F2*G2</f>
+      <c r="I2">
+        <f>G2*H2</f>
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1">
-        <f>F2</f>
+        <f>G2</f>
         <v>176</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3+C3*2</f>
+        <f t="shared" ref="D3:D6" si="0">B3+C3*2</f>
         <v>178</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="1">((D3-E3+1)/2)</f>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="1">((D3-E3+1)/F3)</f>
         <v>88</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="2">F3*G3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">G3*H3</f>
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B7" si="3">F3</f>
+        <f t="shared" ref="B4:B6" si="3">G3</f>
         <v>88</v>
       </c>
       <c r="C4">
@@ -506,19 +518,22 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1">
         <f t="shared" si="3"/>
         <v>44</v>
@@ -533,19 +548,22 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>16</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -560,21 +578,24 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>32</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
